--- a/hiqu/HR/Performance Evaluation/October 2024/Dev/Asad Mahmood.xlsx
+++ b/hiqu/HR/Performance Evaluation/October 2024/Dev/Asad Mahmood.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\September 2024\Dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\October 2024\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D01E48-A598-440F-8980-6931FC90FA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0D9E17-CD89-4757-8719-D3FFDBC4030D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
@@ -355,9 +355,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="#"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -699,7 +700,7 @@
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -768,9 +769,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -787,9 +785,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -880,7 +875,58 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2905,18 +2951,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="49"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
     </row>
@@ -2924,11 +2970,11 @@
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
@@ -2936,11 +2982,11 @@
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
@@ -2948,11 +2994,11 @@
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
@@ -2960,11 +3006,11 @@
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
@@ -2972,11 +3018,11 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
@@ -2984,12 +3030,12 @@
       <c r="B10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="47">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>1.1041095890410959</v>
-      </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
+        <v>1.1342465753424658</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
@@ -2997,11 +3043,11 @@
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
@@ -3280,13 +3326,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="28"/>
@@ -3303,12 +3349,12 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="30"/>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="31" t="s">
@@ -3328,13 +3374,13 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="55"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
@@ -3425,13 +3471,13 @@
       <c r="F14" s="26"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="57"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="55"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
@@ -3509,13 +3555,13 @@
       <c r="F22" s="26"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="57"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="55"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="27" t="s">
@@ -3960,7 +4006,7 @@
   <dimension ref="B2:Z20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3975,7 +4021,7 @@
     <col min="11" max="11" width="2.140625" style="5" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="5"/>
     <col min="13" max="13" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" style="84" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2.28515625" style="5" customWidth="1"/>
     <col min="16" max="16" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
@@ -3989,92 +4035,92 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
     </row>
     <row r="3" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="60" t="str">
+      <c r="B3" s="58" t="str">
         <f>Employee!C6</f>
         <v>Asad Mahmood</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -4083,42 +4129,42 @@
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="33" t="s">
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="65" t="s">
+      <c r="J6" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="K6" s="46"/>
-      <c r="L6" s="67" t="s">
+      <c r="K6" s="44"/>
+      <c r="L6" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="67"/>
-      <c r="N6" s="68"/>
-      <c r="P6" s="63" t="s">
+      <c r="M6" s="65"/>
+      <c r="N6" s="66"/>
+      <c r="P6" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
       <c r="T6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="V6" s="8"/>
-      <c r="W6" s="65" t="s">
+      <c r="W6" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="67"/>
-      <c r="Z6" s="68"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="66"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" s="24"/>
@@ -4138,16 +4184,16 @@
       <c r="H7" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="35" t="s">
+      <c r="I7" s="62"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="34" t="s">
         <v>13</v>
       </c>
       <c r="M7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="76" t="s">
         <v>23</v>
       </c>
       <c r="P7" s="8" t="s">
@@ -4189,11 +4235,11 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="44"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="42"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="6"/>
+      <c r="N8" s="77"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -4220,33 +4266,30 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="44">
+      <c r="J9" s="40"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="42">
         <v>40</v>
       </c>
       <c r="M9" s="2">
-        <v>56</v>
-      </c>
-      <c r="N9" s="32">
-        <f>IF(L9=0,0,IF(M9=0,0,(M9/L9)))</f>
-        <v>1.4</v>
+        <v>89</v>
+      </c>
+      <c r="N9" s="78">
+        <f>L9-M9</f>
+        <v>-49</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2">
         <v>0</v>
       </c>
       <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-      <c r="R9" s="9">
-        <f>IF(P9=0,0,(Q9-P9)/P9)</f>
-        <v>0</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="R9" s="9"/>
       <c r="S9" s="26"/>
       <c r="T9" s="22">
         <f t="shared" ref="T9:T16" si="0">D9+E9+F9+G9+I9+J9+M9+Q9</f>
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="U9" s="2"/>
       <c r="V9" s="9"/>
@@ -4264,28 +4307,32 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <v>4</v>
+      </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="39">
+      <c r="J10" s="40"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="2">
+        <v>31</v>
+      </c>
+      <c r="N10" s="79">
         <f>IF(L10=0,0,M10/L10)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="38">
+      <c r="O10" s="37">
         <v>49</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="R10" s="6"/>
       <c r="S10" s="2"/>
-      <c r="T10" s="40">
+      <c r="T10" s="38">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="U10" s="2"/>
       <c r="V10" s="6"/>
@@ -4305,17 +4352,17 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="44">
+      <c r="J11" s="40"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="42">
         <v>44</v>
       </c>
       <c r="M11" s="2">
         <v>33</v>
       </c>
-      <c r="N11" s="70">
-        <f>IF(L11=0,0,IF(M11=0,0,(M11/L11)))</f>
-        <v>0.75</v>
+      <c r="N11" s="80">
+        <f>L11-M11</f>
+        <v>11</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -4324,7 +4371,7 @@
       </c>
       <c r="R11" s="6"/>
       <c r="S11" s="2"/>
-      <c r="T11" s="40">
+      <c r="T11" s="38">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
@@ -4346,24 +4393,24 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="44">
+      <c r="J12" s="40"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="42">
         <v>16</v>
       </c>
       <c r="M12" s="2">
         <v>2</v>
       </c>
-      <c r="N12" s="70">
-        <f>IF(L12=0,0,IF(M12=0,0,(M12/L12)))</f>
-        <v>0.125</v>
+      <c r="N12" s="78">
+        <f>L12-M12</f>
+        <v>14</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="6"/>
       <c r="S12" s="2"/>
-      <c r="T12" s="40">
+      <c r="T12" s="38">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -4385,13 +4432,13 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="44"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="42"/>
       <c r="M13" s="2">
         <v>20</v>
       </c>
-      <c r="N13" s="70">
+      <c r="N13" s="80">
         <f>IF(L13=0,0,IF(M13=0,0,(M13/L13)))</f>
         <v>0</v>
       </c>
@@ -4402,7 +4449,7 @@
       </c>
       <c r="R13" s="6"/>
       <c r="S13" s="2"/>
-      <c r="T13" s="40">
+      <c r="T13" s="38">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -4424,21 +4471,18 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="44"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="42"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="9">
+      <c r="N14" s="81">
         <f t="shared" ref="N14:N19" si="1">IF(L14=0,0,(M14-L14)/L14)</f>
         <v>0</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-      <c r="R14" s="9">
-        <f>IF(P14=0,0,(Q14-P14)/P14)</f>
-        <v>0</v>
-      </c>
+      <c r="R14" s="9"/>
       <c r="S14" s="26"/>
       <c r="T14" s="22">
         <f t="shared" si="0"/>
@@ -4464,21 +4508,18 @@
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="44"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="42"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="9">
+      <c r="N15" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
-      <c r="R15" s="9">
-        <f>IF(P15=0,0,(Q15-P15)/P15)</f>
-        <v>0</v>
-      </c>
+      <c r="R15" s="9"/>
       <c r="S15" s="26"/>
       <c r="T15" s="22">
         <f t="shared" si="0"/>
@@ -4502,11 +4543,11 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="44"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="42"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="9">
+      <c r="N16" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4514,13 +4555,10 @@
       <c r="P16" s="2">
         <v>0</v>
       </c>
-      <c r="Q16" s="41">
+      <c r="Q16" s="39">
         <v>123</v>
       </c>
-      <c r="R16" s="9">
-        <f>IF(P16=0,0,(Q16-P16)/P16)</f>
-        <v>0</v>
-      </c>
+      <c r="R16" s="9"/>
       <c r="S16" s="2"/>
       <c r="T16" s="22">
         <f t="shared" si="0"/>
@@ -4542,11 +4580,11 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="44"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="42"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="9"/>
+      <c r="N17" s="81"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -4569,11 +4607,11 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="44"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="42"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="N18" s="82"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -4613,22 +4651,22 @@
         <f>SUM(I8:I18)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="43">
+      <c r="J19" s="41">
         <f>SUM(J8:J18)</f>
         <v>0</v>
       </c>
-      <c r="K19" s="47"/>
-      <c r="L19" s="45">
+      <c r="K19" s="45"/>
+      <c r="L19" s="43">
         <f>SUM(L8:L18)</f>
         <v>100</v>
       </c>
       <c r="M19" s="11">
         <f>SUM(M8:M18)</f>
-        <v>111</v>
-      </c>
-      <c r="N19" s="12">
-        <f t="shared" si="1"/>
-        <v>0.11</v>
+        <v>175</v>
+      </c>
+      <c r="N19" s="83">
+        <f>L19-M19</f>
+        <v>-75</v>
       </c>
       <c r="O19" s="11"/>
       <c r="P19" s="11">
@@ -4637,16 +4675,13 @@
       </c>
       <c r="Q19" s="11">
         <f>SUM(Q8:Q18)</f>
-        <v>188</v>
-      </c>
-      <c r="R19" s="12">
-        <f>IF(P19=0,0,(Q19-P19)/P19)</f>
-        <v>0</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="R19" s="12"/>
       <c r="S19" s="11"/>
       <c r="T19" s="11">
         <f>SUM(T8:T16)</f>
-        <v>308</v>
+        <v>351</v>
       </c>
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
@@ -4693,8 +4728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91243861-FD89-470C-9D9D-D3C0781A3547}">
   <dimension ref="B2:Z15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4709,11 +4744,11 @@
     <col min="11" max="11" width="2.140625" style="5" customWidth="1"/>
     <col min="12" max="12" width="9.28515625" style="5"/>
     <col min="13" max="13" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" style="75" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2.28515625" style="5" customWidth="1"/>
     <col min="16" max="16" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" style="75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" style="75" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="1.7109375" style="5" customWidth="1"/>
     <col min="20" max="20" width="9.7109375" style="5" customWidth="1"/>
     <col min="21" max="21" width="2.28515625" style="5" customWidth="1"/>
@@ -4723,92 +4758,92 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
     </row>
     <row r="3" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="60" t="str">
+      <c r="B3" s="58" t="str">
         <f>Employee!C6</f>
         <v>Asad Mahmood</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -4817,41 +4852,41 @@
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="33" t="s">
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="L6" s="65" t="s">
+      <c r="L6" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="67"/>
-      <c r="N6" s="68"/>
-      <c r="P6" s="63" t="s">
+      <c r="M6" s="65"/>
+      <c r="N6" s="66"/>
+      <c r="P6" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
       <c r="T6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="V6" s="8"/>
-      <c r="W6" s="65" t="s">
+      <c r="W6" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="67"/>
-      <c r="Z6" s="68"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="66"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" s="24"/>
@@ -4871,24 +4906,24 @@
       <c r="H7" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
       <c r="L7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="M7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="68" t="s">
         <v>23</v>
       </c>
       <c r="P7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="Q7" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="R7" s="68" t="s">
         <v>19</v>
       </c>
       <c r="T7" s="25" t="s">
@@ -4925,11 +4960,11 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="6"/>
+      <c r="N8" s="69"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="6"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="69"/>
       <c r="S8" s="2"/>
       <c r="T8" s="6"/>
       <c r="U8" s="2"/>
@@ -4960,21 +4995,18 @@
       <c r="M9" s="2">
         <v>56</v>
       </c>
-      <c r="N9" s="32">
-        <f>IF(L9=0,0,IF(M9=0,0,(M9/L9)))</f>
-        <v>1.4</v>
+      <c r="N9" s="70">
+        <f>L9-M9</f>
+        <v>-16</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2">
         <v>0</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="73">
         <v>0</v>
       </c>
-      <c r="R9" s="9">
-        <f>IF(P9=0,0,(Q9-P9)/P9)</f>
-        <v>0</v>
-      </c>
+      <c r="R9" s="72"/>
       <c r="S9" s="26"/>
       <c r="T9" s="22">
         <f>D9+E9+F9+G9+I9+J9+M9+Q9</f>
@@ -5002,17 +5034,11 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="9">
-        <f t="shared" ref="N10:N14" si="0">IF(L10=0,0,(M10-L10)/L10)</f>
-        <v>0</v>
-      </c>
+      <c r="N10" s="72"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="9">
-        <f>IF(P10=0,0,(Q10-P10)/P10)</f>
-        <v>0</v>
-      </c>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="72"/>
       <c r="S10" s="26"/>
       <c r="T10" s="22">
         <f>D10+E10+F10+G10+I10+J10+M10+Q10</f>
@@ -5033,26 +5059,20 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>4</v>
-      </c>
+      <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="N11" s="72"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="9">
-        <f>IF(P11=0,0,(Q11-P11)/P11)</f>
-        <v>0</v>
-      </c>
+      <c r="Q11" s="73">
+        <v>4</v>
+      </c>
+      <c r="R11" s="72"/>
       <c r="S11" s="26"/>
       <c r="T11" s="22">
         <f>D11+E11+F11+G11+I11+J11+M11+Q11</f>
@@ -5080,25 +5100,17 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="N12" s="72"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>83</v>
-      </c>
-      <c r="R12" s="9">
-        <f>IF(P12=0,0,(Q12-P12)/P12)</f>
-        <v>0</v>
-      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="73">
+        <v>84</v>
+      </c>
+      <c r="R12" s="72"/>
       <c r="S12" s="2"/>
       <c r="T12" s="22">
         <f>D12+E12+F12+G12+I12+J12+M12+Q12</f>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U12" s="2"/>
       <c r="V12" s="6"/>
@@ -5120,11 +5132,11 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="N13" s="73"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
@@ -5144,73 +5156,70 @@
         <v>0</v>
       </c>
       <c r="E14" s="11">
-        <f t="shared" ref="E14:J14" si="1">SUM(E8:E13)</f>
+        <f t="shared" ref="E14:J14" si="0">SUM(E8:E13)</f>
         <v>5</v>
       </c>
       <c r="F14" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G14" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J14" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11">
-        <f t="shared" ref="L14:M14" si="2">SUM(L8:L13)</f>
+        <f t="shared" ref="L14:M14" si="1">SUM(L8:L13)</f>
         <v>40</v>
       </c>
       <c r="M14" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="N14" s="12">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
+      <c r="N14" s="74">
+        <f>L14-M14</f>
+        <v>-16</v>
       </c>
       <c r="O14" s="11"/>
       <c r="P14" s="11">
-        <f t="shared" ref="P14" si="3">SUM(P8:P13)</f>
+        <f t="shared" ref="P14" si="2">SUM(P8:P13)</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="11">
-        <f t="shared" ref="Q14" si="4">SUM(Q8:Q13)</f>
-        <v>83</v>
-      </c>
-      <c r="R14" s="12">
-        <f>IF(P14=0,0,(Q14-P14)/P14)</f>
-        <v>0</v>
-      </c>
+      <c r="Q14" s="85">
+        <f t="shared" ref="Q14" si="3">SUM(Q8:Q13)</f>
+        <v>88</v>
+      </c>
+      <c r="R14" s="74"/>
       <c r="S14" s="11"/>
       <c r="T14" s="11">
         <f>SUM(T8:T12)</f>
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
       <c r="W14" s="11">
-        <f t="shared" ref="W14" si="5">SUM(W8:W13)</f>
+        <f t="shared" ref="W14" si="4">SUM(W8:W13)</f>
         <v>0</v>
       </c>
       <c r="X14" s="11">
-        <f t="shared" ref="X14" si="6">SUM(X8:X13)</f>
+        <f t="shared" ref="X14" si="5">SUM(X8:X13)</f>
         <v>0</v>
       </c>
       <c r="Y14" s="11">
-        <f t="shared" ref="Y14:Z14" si="7">SUM(Y8:Y13)</f>
+        <f t="shared" ref="Y14:Z14" si="6">SUM(Y8:Y13)</f>
         <v>0</v>
       </c>
       <c r="Z14" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -5240,8 +5249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C7F14C-793E-47E5-A152-7F357B90EBD1}">
   <dimension ref="B2:Z21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5256,7 +5265,7 @@
     <col min="11" max="11" width="2.140625" style="5" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="5"/>
     <col min="13" max="13" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" style="75" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2.28515625" style="5" customWidth="1"/>
     <col min="16" max="16" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
@@ -5270,92 +5279,92 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
     </row>
     <row r="3" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="60" t="str">
+      <c r="B3" s="58" t="str">
         <f>Employee!C6</f>
         <v>Asad Mahmood</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -5364,41 +5373,41 @@
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="65"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="63"/>
       <c r="H6" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="I6" s="68" t="s">
+      <c r="I6" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="L6" s="65" t="s">
+      <c r="L6" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="67"/>
-      <c r="N6" s="68"/>
-      <c r="P6" s="63" t="s">
+      <c r="M6" s="65"/>
+      <c r="N6" s="66"/>
+      <c r="P6" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
       <c r="T6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="V6" s="8"/>
-      <c r="W6" s="65" t="s">
+      <c r="W6" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="67"/>
-      <c r="Z6" s="68"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="66"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" s="24"/>
@@ -5412,21 +5421,21 @@
       <c r="F7" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="64"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="62"/>
       <c r="L7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="M7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="68" t="s">
         <v>23</v>
       </c>
       <c r="P7" s="8" t="s">
@@ -5466,13 +5475,13 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="36"/>
+      <c r="H8" s="35"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="6"/>
+      <c r="N8" s="69"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -5495,28 +5504,29 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <v>4</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="39">
-        <f>IF(L9=0,0,M9/L9)</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="38">
+      <c r="M9" s="2">
+        <v>31</v>
+      </c>
+      <c r="N9" s="71"/>
+      <c r="O9" s="37">
         <v>49</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="R9" s="6"/>
       <c r="S9" s="2"/>
-      <c r="T9" s="40">
+      <c r="T9" s="38">
         <f>D9+E9+F9+G9+I9+J9+M9+Q9</f>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="U9" s="2"/>
       <c r="V9" s="6"/>
@@ -5544,7 +5554,10 @@
       <c r="M10" s="2">
         <v>33</v>
       </c>
-      <c r="N10" s="6"/>
+      <c r="N10" s="69">
+        <f>L10-M10</f>
+        <v>11</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2">
@@ -5552,7 +5565,7 @@
       </c>
       <c r="R10" s="6"/>
       <c r="S10" s="2"/>
-      <c r="T10" s="40">
+      <c r="T10" s="38">
         <f>D10+E10+F10+G10+I10+J10+M10+Q10</f>
         <v>47</v>
       </c>
@@ -5582,13 +5595,16 @@
       <c r="M11" s="2">
         <v>2</v>
       </c>
-      <c r="N11" s="6"/>
+      <c r="N11" s="69">
+        <f>L11-M11</f>
+        <v>64</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="6"/>
       <c r="S11" s="2"/>
-      <c r="T11" s="40">
+      <c r="T11" s="38">
         <f>D11+E11+F11+G11+I11+J11+M11+Q11</f>
         <v>2</v>
       </c>
@@ -5616,7 +5632,7 @@
       <c r="M12" s="2">
         <v>20</v>
       </c>
-      <c r="N12" s="6"/>
+      <c r="N12" s="69"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2">
@@ -5624,7 +5640,7 @@
       </c>
       <c r="R12" s="6"/>
       <c r="S12" s="2"/>
-      <c r="T12" s="40">
+      <c r="T12" s="38">
         <f>D12+E12+F12+G12+I12+J12+M12+Q12</f>
         <v>28</v>
       </c>
@@ -5650,7 +5666,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="9"/>
+      <c r="N13" s="72"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -5679,10 +5695,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="9">
-        <f t="shared" ref="N14:N20" si="0">IF(L14=0,0,(M14-L14)/L14)</f>
-        <v>0</v>
-      </c>
+      <c r="N14" s="72"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2">
@@ -5717,7 +5730,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="9"/>
+      <c r="N15" s="72"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -5744,7 +5757,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="9"/>
+      <c r="N16" s="72"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -5771,7 +5784,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="9"/>
+      <c r="N17" s="72"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -5798,7 +5811,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="9"/>
+      <c r="N18" s="72"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -5825,7 +5838,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="N19" s="73"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -5845,31 +5858,31 @@
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="11">
-        <f t="shared" ref="D20:J20" si="1">SUM(D8:D19)</f>
+        <f t="shared" ref="D20:J20" si="0">SUM(D8:D19)</f>
         <v>0</v>
       </c>
       <c r="E20" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F20" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G20" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H20" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I20" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="J20" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K20" s="11"/>
@@ -5879,11 +5892,11 @@
       </c>
       <c r="M20" s="11">
         <f>SUM(M8:M19)</f>
-        <v>55</v>
-      </c>
-      <c r="N20" s="12">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <v>86</v>
+      </c>
+      <c r="N20" s="74">
+        <f>L20-M20</f>
+        <v>24</v>
       </c>
       <c r="O20" s="11"/>
       <c r="P20" s="11">
@@ -5892,7 +5905,7 @@
       </c>
       <c r="Q20" s="11">
         <f>SUM(Q8:Q19)</f>
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="R20" s="12">
         <f>IF(P20=0,0,(Q20-P20)/P20)</f>
@@ -5901,7 +5914,7 @@
       <c r="S20" s="11"/>
       <c r="T20" s="11">
         <f>SUM(T8:T19)</f>
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
@@ -5910,15 +5923,15 @@
         <v>0</v>
       </c>
       <c r="X20" s="11">
-        <f t="shared" ref="X20:Z20" si="2">SUM(X8:X19)</f>
+        <f t="shared" ref="X20:Z20" si="1">SUM(X8:X19)</f>
         <v>0</v>
       </c>
       <c r="Y20" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z20" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
